--- a/Freds_Cement_51216.xlsx
+++ b/Freds_Cement_51216.xlsx
@@ -201,7 +201,7 @@
     <t>sdafasdfdsNew</t>
   </si>
   <si>
-    <t>Freds Cemeadsfasdfsdfdsnt</t>
+    <t>Freds Ceasdfasdfasdfasdfasdfmeadsfasdfsdfdsnt</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -818,7 +818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="1" customFormat="1" ht="60">
+    <row r="3" spans="1:36" s="1" customFormat="1" ht="90">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>

--- a/Freds_Cement_51216.xlsx
+++ b/Freds_Cement_51216.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>CA</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Freds Ceasdfasdfasdfasdfasdfmeadsfasdfsdfdsnt</t>
+  </si>
+  <si>
+    <t>asdfasdfasdfasdfasdfasfasdfasdSan Francisco</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -656,7 +659,7 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -818,7 +821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="1" customFormat="1" ht="90">
+    <row r="3" spans="1:36" s="1" customFormat="1" ht="105">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -838,7 +841,7 @@
         <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
